--- a/Projects/CCRU/Data/KPIs for Contract Execution.xlsx
+++ b/Projects/CCRU/Data/KPIs for Contract Execution.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="245">
   <si>
     <t xml:space="preserve">KPI Level 1 Name</t>
   </si>
@@ -346,10 +346,25 @@
     <t xml:space="preserve">CS@Shelf Share</t>
   </si>
   <si>
-    <t xml:space="preserve">CS@ SSD Shelf Share</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SSD Shelf Share</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CS@SSD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Shelf Share</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">CS@Water Shelf Share</t>
@@ -768,7 +783,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -789,6 +804,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -833,7 +855,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -843,6 +865,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -865,18 +891,18 @@
   </sheetPr>
   <dimension ref="A1:E188"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A188 A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E78" activeCellId="0" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.6989795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.9591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.0765306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.3979591836735"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.4795918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.4183673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.280612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.5"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="14.5816326530612"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2171,7 +2197,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
         <v>10</v>
       </c>
@@ -2181,11 +2207,11 @@
       <c r="C77" s="2" t="n">
         <v>0.29</v>
       </c>
-      <c r="D77" s="0" t="s">
+      <c r="D77" s="3" t="s">
         <v>108</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>109</v>
+        <v>41</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2199,7 +2225,7 @@
         <v>0.29</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E78" s="0" t="s">
         <v>43</v>
@@ -2216,7 +2242,7 @@
         <v>0.29</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E79" s="0" t="s">
         <v>45</v>
@@ -2233,7 +2259,7 @@
         <v>0.29</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E80" s="0" t="s">
         <v>47</v>
@@ -2250,7 +2276,7 @@
         <v>0.29</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E81" s="0" t="s">
         <v>49</v>
@@ -2261,13 +2287,13 @@
         <v>5</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>0.4</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E82" s="0" t="s">
         <v>7</v>
@@ -2278,13 +2304,13 @@
         <v>5</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>0.6</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E83" s="0" t="s">
         <v>9</v>
@@ -2295,13 +2321,13 @@
         <v>10</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>0.333</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E84" s="0" t="s">
         <v>34</v>
@@ -2312,13 +2338,13 @@
         <v>10</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>0.333</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E85" s="0" t="s">
         <v>36</v>
@@ -2329,13 +2355,13 @@
         <v>10</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>0.333</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E86" s="0" t="s">
         <v>38</v>
@@ -2346,16 +2372,16 @@
         <v>10</v>
       </c>
       <c r="B87" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="D87" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="C87" s="2" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="D87" s="0" t="s">
+      <c r="E87" s="0" t="s">
         <v>121</v>
-      </c>
-      <c r="E87" s="0" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2363,16 +2389,16 @@
         <v>10</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D88" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="E88" s="0" t="s">
         <v>123</v>
-      </c>
-      <c r="E88" s="0" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2380,16 +2406,16 @@
         <v>10</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C89" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D89" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="E89" s="0" t="s">
         <v>125</v>
-      </c>
-      <c r="E89" s="0" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2397,16 +2423,16 @@
         <v>10</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C90" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D90" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="E90" s="0" t="s">
         <v>127</v>
-      </c>
-      <c r="E90" s="0" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2414,16 +2440,16 @@
         <v>10</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C91" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D91" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="E91" s="0" t="s">
         <v>129</v>
-      </c>
-      <c r="E91" s="0" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2431,16 +2457,16 @@
         <v>10</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C92" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D92" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="E92" s="0" t="s">
         <v>131</v>
-      </c>
-      <c r="E92" s="0" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2448,16 +2474,16 @@
         <v>10</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C93" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D93" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="E93" s="0" t="s">
         <v>133</v>
-      </c>
-      <c r="E93" s="0" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2465,16 +2491,16 @@
         <v>10</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C94" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D94" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="E94" s="0" t="s">
         <v>135</v>
-      </c>
-      <c r="E94" s="0" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2482,16 +2508,16 @@
         <v>10</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C95" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D95" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E95" s="0" t="s">
         <v>137</v>
-      </c>
-      <c r="E95" s="0" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2499,16 +2525,16 @@
         <v>10</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C96" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D96" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="E96" s="0" t="s">
         <v>139</v>
-      </c>
-      <c r="E96" s="0" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2516,16 +2542,16 @@
         <v>10</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C97" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D97" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="E97" s="0" t="s">
         <v>141</v>
-      </c>
-      <c r="E97" s="0" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2533,16 +2559,16 @@
         <v>10</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C98" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D98" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="E98" s="0" t="s">
         <v>143</v>
-      </c>
-      <c r="E98" s="0" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2550,13 +2576,13 @@
         <v>5</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C99" s="2" t="n">
         <v>0.4</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E99" s="0" t="s">
         <v>7</v>
@@ -2567,13 +2593,13 @@
         <v>5</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C100" s="2" t="n">
         <v>0.6</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E100" s="0" t="s">
         <v>9</v>
@@ -2584,13 +2610,13 @@
         <v>10</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C101" s="2" t="n">
         <v>0.333</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E101" s="0" t="s">
         <v>34</v>
@@ -2601,13 +2627,13 @@
         <v>10</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C102" s="2" t="n">
         <v>0.333</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E102" s="0" t="s">
         <v>36</v>
@@ -2618,13 +2644,13 @@
         <v>10</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C103" s="2" t="n">
         <v>0.333</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E103" s="0" t="s">
         <v>38</v>
@@ -2635,16 +2661,16 @@
         <v>10</v>
       </c>
       <c r="B104" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="C104" s="2" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="D104" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="C104" s="2" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="D104" s="0" t="s">
-        <v>152</v>
-      </c>
       <c r="E104" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2652,16 +2678,16 @@
         <v>10</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C105" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2669,16 +2695,16 @@
         <v>10</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C106" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2686,16 +2712,16 @@
         <v>10</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C107" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2703,16 +2729,16 @@
         <v>10</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C108" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2720,16 +2746,16 @@
         <v>10</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C109" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2737,16 +2763,16 @@
         <v>10</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C110" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2754,16 +2780,16 @@
         <v>10</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C111" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2771,16 +2797,16 @@
         <v>10</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C112" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2788,16 +2814,16 @@
         <v>10</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C113" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2805,16 +2831,16 @@
         <v>10</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C114" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2822,16 +2848,16 @@
         <v>10</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C115" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2839,13 +2865,13 @@
         <v>5</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C116" s="2" t="n">
         <v>0.4</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E116" s="0" t="s">
         <v>7</v>
@@ -2856,13 +2882,13 @@
         <v>5</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C117" s="2" t="n">
         <v>0.6</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E117" s="0" t="s">
         <v>9</v>
@@ -2873,13 +2899,13 @@
         <v>10</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C118" s="2" t="n">
         <v>0.5</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E118" s="0" t="s">
         <v>34</v>
@@ -2890,13 +2916,13 @@
         <v>10</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C119" s="2" t="n">
         <v>0.5</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E119" s="0" t="s">
         <v>36</v>
@@ -2907,13 +2933,13 @@
         <v>10</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C120" s="2" t="n">
         <v>0.5</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E120" s="0" t="s">
         <v>38</v>
@@ -2924,16 +2950,16 @@
         <v>10</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C121" s="2" t="n">
         <v>0.333</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2941,16 +2967,16 @@
         <v>10</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C122" s="2" t="n">
         <v>0.333</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2958,16 +2984,16 @@
         <v>10</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C123" s="2" t="n">
         <v>0.333</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2975,16 +3001,16 @@
         <v>10</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C124" s="2" t="n">
         <v>0.333</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2992,16 +3018,16 @@
         <v>10</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C125" s="2" t="n">
         <v>0.333</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3009,16 +3035,16 @@
         <v>10</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C126" s="2" t="n">
         <v>0.333</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3026,16 +3052,16 @@
         <v>10</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C127" s="2" t="n">
         <v>0.333</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3043,16 +3069,16 @@
         <v>10</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C128" s="2" t="n">
         <v>0.333</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3060,16 +3086,16 @@
         <v>10</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C129" s="2" t="n">
         <v>0.333</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3077,16 +3103,16 @@
         <v>10</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C130" s="2" t="n">
         <v>0.333</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3094,16 +3120,16 @@
         <v>10</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C131" s="2" t="n">
         <v>0.333</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3111,16 +3137,16 @@
         <v>10</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C132" s="2" t="n">
         <v>0.333</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3128,13 +3154,13 @@
         <v>10</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C133" s="2" t="n">
         <v>0.167</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E133" s="0" t="s">
         <v>41</v>
@@ -3145,13 +3171,13 @@
         <v>10</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C134" s="2" t="n">
         <v>0.167</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E134" s="0" t="s">
         <v>43</v>
@@ -3162,13 +3188,13 @@
         <v>10</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C135" s="2" t="n">
         <v>0.167</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E135" s="0" t="s">
         <v>45</v>
@@ -3179,13 +3205,13 @@
         <v>10</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C136" s="2" t="n">
         <v>0.167</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E136" s="0" t="s">
         <v>47</v>
@@ -3196,13 +3222,13 @@
         <v>10</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C137" s="2" t="n">
         <v>0.167</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E137" s="0" t="s">
         <v>49</v>
@@ -3213,13 +3239,13 @@
         <v>5</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C138" s="2" t="n">
         <v>0.4</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E138" s="0" t="s">
         <v>7</v>
@@ -3230,13 +3256,13 @@
         <v>5</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C139" s="2" t="n">
         <v>0.6</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E139" s="0" t="s">
         <v>9</v>
@@ -3247,13 +3273,13 @@
         <v>10</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C140" s="2" t="n">
         <v>0.333</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E140" s="0" t="s">
         <v>34</v>
@@ -3264,13 +3290,13 @@
         <v>10</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C141" s="2" t="n">
         <v>0.333</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E141" s="0" t="s">
         <v>36</v>
@@ -3281,13 +3307,13 @@
         <v>10</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C142" s="2" t="n">
         <v>0.333</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E142" s="0" t="s">
         <v>38</v>
@@ -3298,16 +3324,16 @@
         <v>10</v>
       </c>
       <c r="B143" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C143" s="2" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="D143" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="C143" s="2" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="D143" s="0" t="s">
-        <v>196</v>
-      </c>
       <c r="E143" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3315,16 +3341,16 @@
         <v>10</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C144" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E144" s="0" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3332,16 +3358,16 @@
         <v>10</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C145" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E145" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3349,16 +3375,16 @@
         <v>10</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C146" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E146" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3366,16 +3392,16 @@
         <v>10</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C147" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E147" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3383,16 +3409,16 @@
         <v>10</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C148" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E148" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3400,16 +3426,16 @@
         <v>10</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C149" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E149" s="0" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3417,16 +3443,16 @@
         <v>10</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C150" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E150" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3434,16 +3460,16 @@
         <v>10</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C151" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E151" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3451,16 +3477,16 @@
         <v>10</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C152" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E152" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3468,16 +3494,16 @@
         <v>10</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C153" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E153" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3485,16 +3511,16 @@
         <v>10</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C154" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E154" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3502,13 +3528,13 @@
         <v>5</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C155" s="2" t="n">
         <v>0.4</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E155" s="0" t="s">
         <v>7</v>
@@ -3519,13 +3545,13 @@
         <v>5</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C156" s="2" t="n">
         <v>0.6</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E156" s="0" t="s">
         <v>9</v>
@@ -3536,13 +3562,13 @@
         <v>10</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C157" s="2" t="n">
         <v>0.333</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E157" s="0" t="s">
         <v>34</v>
@@ -3553,13 +3579,13 @@
         <v>10</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C158" s="2" t="n">
         <v>0.333</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E158" s="0" t="s">
         <v>36</v>
@@ -3570,13 +3596,13 @@
         <v>10</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C159" s="2" t="n">
         <v>0.333</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E159" s="0" t="s">
         <v>38</v>
@@ -3587,16 +3613,16 @@
         <v>10</v>
       </c>
       <c r="B160" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C160" s="2" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="D160" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="C160" s="2" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="D160" s="0" t="s">
-        <v>215</v>
-      </c>
       <c r="E160" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3604,16 +3630,16 @@
         <v>10</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C161" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E161" s="0" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3621,16 +3647,16 @@
         <v>10</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C162" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D162" s="0" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E162" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3638,16 +3664,16 @@
         <v>10</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C163" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E163" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3655,16 +3681,16 @@
         <v>10</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C164" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E164" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3672,16 +3698,16 @@
         <v>10</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C165" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E165" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3689,16 +3715,16 @@
         <v>10</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C166" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D166" s="0" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E166" s="0" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3706,16 +3732,16 @@
         <v>10</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C167" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D167" s="0" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E167" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3723,16 +3749,16 @@
         <v>10</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C168" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D168" s="0" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E168" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3740,16 +3766,16 @@
         <v>10</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C169" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D169" s="0" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E169" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3757,16 +3783,16 @@
         <v>10</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C170" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D170" s="0" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E170" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3774,16 +3800,16 @@
         <v>10</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C171" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D171" s="0" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E171" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3791,13 +3817,13 @@
         <v>5</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C172" s="2" t="n">
         <v>0.4</v>
       </c>
       <c r="D172" s="0" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E172" s="0" t="s">
         <v>7</v>
@@ -3808,13 +3834,13 @@
         <v>5</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C173" s="2" t="n">
         <v>0.6</v>
       </c>
       <c r="D173" s="0" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E173" s="0" t="s">
         <v>9</v>
@@ -3825,13 +3851,13 @@
         <v>10</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C174" s="2" t="n">
         <v>0.333</v>
       </c>
       <c r="D174" s="0" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E174" s="0" t="s">
         <v>34</v>
@@ -3842,13 +3868,13 @@
         <v>10</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C175" s="2" t="n">
         <v>0.333</v>
       </c>
       <c r="D175" s="0" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E175" s="0" t="s">
         <v>36</v>
@@ -3859,13 +3885,13 @@
         <v>10</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C176" s="2" t="n">
         <v>0.333</v>
       </c>
       <c r="D176" s="0" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E176" s="0" t="s">
         <v>38</v>
@@ -3876,16 +3902,16 @@
         <v>10</v>
       </c>
       <c r="B177" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="C177" s="2" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="D177" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="C177" s="2" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="D177" s="0" t="s">
-        <v>234</v>
-      </c>
       <c r="E177" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3893,16 +3919,16 @@
         <v>10</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C178" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D178" s="0" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E178" s="0" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3910,16 +3936,16 @@
         <v>10</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C179" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D179" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E179" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3927,16 +3953,16 @@
         <v>10</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C180" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D180" s="0" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E180" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3944,16 +3970,16 @@
         <v>10</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C181" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D181" s="0" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E181" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3961,16 +3987,16 @@
         <v>10</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C182" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D182" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E182" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3978,16 +4004,16 @@
         <v>10</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C183" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D183" s="0" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E183" s="0" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3995,16 +4021,16 @@
         <v>10</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C184" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D184" s="0" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E184" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4012,16 +4038,16 @@
         <v>10</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C185" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D185" s="0" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E185" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4029,16 +4055,16 @@
         <v>10</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C186" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D186" s="0" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E186" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4046,16 +4072,16 @@
         <v>10</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C187" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D187" s="0" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E187" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4063,19 +4089,22 @@
         <v>10</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C188" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D188" s="0" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E188" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D77" r:id="rId1" display="CS@SSD"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU/Data/KPIs for Contract Execution.xlsx
+++ b/Projects/CCRU/Data/KPIs for Contract Execution.xlsx
@@ -9,7 +9,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet1_12" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="251">
   <si>
     <t xml:space="preserve">KPI Level 1 Name</t>
   </si>
@@ -38,208 +37,208 @@
     <t xml:space="preserve">KPI Level 3 Display Text</t>
   </si>
   <si>
+    <t xml:space="preserve">Contract Execution 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HM@OSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HM@Equipment contract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equipment contract</t>
+  </si>
+  <si>
     <t xml:space="preserve">Equipment Execution 2018</t>
   </si>
   <si>
+    <t xml:space="preserve">HM@Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HM@SSD Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HM@Water Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HM@Energy Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HM@Ice Tea Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice Tea Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HM@Juice Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HM@SSD Promo Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Promo Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HM@Water Promo Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Promo Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HM@Energy Promo Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Promo Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HM@Ice Tea Promo Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice Tea Promo Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HM@Juice Promo Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Promo Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HM@CCH Cooler </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HM@CCH Cooler Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCH Cooler Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HM@Customer Cooler Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer Cooler Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HM@Visible Cooler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visible Cooler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HM@Shelf Share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HM@SSD Shelf Share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf Share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HM@Water Shelf Share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Shelf Share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HM@Energy Shelf Share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Shelf Share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HM@Tea Shelf Share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea Shelf Share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HM@Juice Shelf Share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Shelf Share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM@OSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM@Equipment contract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM@Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM@SSD Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM@Water Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM@Energy Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM@Ice Tea Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM@Juice Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM@SSD Promo Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM@Water Promo Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM@Energy Promo Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM@Ice Tea Promo Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM@Juice Promo Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM@CCH Cooler </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM@CCH Cooler Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM@Customer Cooler Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM@Visible Cooler</t>
+  </si>
+  <si>
     <t xml:space="preserve">SM@Shelf Share</t>
   </si>
   <si>
     <t xml:space="preserve">SM@SSD Shelf Share</t>
   </si>
   <si>
-    <t xml:space="preserve">SSD Shelf Share</t>
-  </si>
-  <si>
     <t xml:space="preserve">SM@Water Shelf Share</t>
   </si>
   <si>
-    <t xml:space="preserve">Water Shelf Share</t>
-  </si>
-  <si>
     <t xml:space="preserve">SM@Energy Shelf Share</t>
   </si>
   <si>
-    <t xml:space="preserve">Energy Shelf Share</t>
-  </si>
-  <si>
     <t xml:space="preserve">SM@Tea Shelf Share</t>
   </si>
   <si>
-    <t xml:space="preserve">Tea Shelf Share</t>
-  </si>
-  <si>
     <t xml:space="preserve">SM@Juice Shelf Share</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice Shelf Share</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contract Execution 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HM@OSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HM@Equipment contract</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equipment contract</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HM@Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HM@SSD Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HM@Water Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HM@Energy Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HM@Ice Tea Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ice Tea Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HM@Juice Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HM@SSD Promo Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Promo Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HM@Water Promo Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Promo Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HM@Energy Promo Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy Promo Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HM@Ice Tea Promo Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ice Tea Promo Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HM@Juice Promo Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice Promo Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HM@CCH Cooler </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HM@CCH Cooler Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCH Cooler Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HM@Customer Cooler Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customer Cooler Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HM@Visible Cooler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visible Cooler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HM@Shelf Share</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HM@SSD Shelf Share</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HM@Water Shelf Share</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HM@Energy Shelf Share</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HM@Tea Shelf Share</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HM@Juice Shelf Share</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM@OSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM@Equipment contract</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM@Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM@SSD Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM@Water Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM@Energy Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM@Ice Tea Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM@Juice Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM@SSD Promo Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM@Water Promo Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM@Energy Promo Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM@Ice Tea Promo Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM@Juice Promo Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM@CCH Cooler </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM@CCH Cooler Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM@Customer Cooler Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM@Visible Cooler</t>
   </si>
   <si>
     <t xml:space="preserve">CB@OSA</t>
@@ -890,20 +889,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E188"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.7959183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.0765306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.6989795918367"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.4591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="16.3775510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.6581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.5"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.3571428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.4795918367347"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="40.1377551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="18.3571428571429"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -931,13 +930,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0.29</v>
+        <v>0.35</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -945,801 +944,667 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0.29</v>
+        <v>0.65</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>9</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.29</v>
+        <v>0.355</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0.29</v>
+        <v>0.355</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0.29</v>
+        <v>0.355</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E188"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.7959183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.0765306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.6989795918367"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.4591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="16.3775510204082"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>0.355</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>0.355</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>0.355</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>0.355</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>0.355</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>0.355</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>33</v>
-      </c>
       <c r="E9" s="0" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>0.355</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>0.355</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>0.355</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>0.355</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>0.355</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>0.355</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>0.355</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>0.29</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>0.29</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>0.29</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>0.29</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>0.29</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>0.35</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>0.65</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>0.355</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>0.355</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>0.355</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>0.355</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>0.355</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B29" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="D29" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="2" t="n">
-        <v>0.355</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>64</v>
-      </c>
       <c r="E29" s="0" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>0.355</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>0.355</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>0.355</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>0.355</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>0.355</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>0.355</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>0.355</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>0.29</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>0.29</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>0.29</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>0.29</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>0.29</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>73</v>
@@ -1751,12 +1616,12 @@
         <v>73</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>74</v>
@@ -1768,12 +1633,12 @@
         <v>74</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>75</v>
@@ -1785,12 +1650,12 @@
         <v>76</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>75</v>
@@ -1802,12 +1667,12 @@
         <v>77</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>75</v>
@@ -1819,12 +1684,12 @@
         <v>78</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>75</v>
@@ -1836,12 +1701,12 @@
         <v>79</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>75</v>
@@ -1853,12 +1718,12 @@
         <v>80</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>75</v>
@@ -1870,12 +1735,12 @@
         <v>81</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>75</v>
@@ -1887,12 +1752,12 @@
         <v>82</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>75</v>
@@ -1904,12 +1769,12 @@
         <v>83</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>75</v>
@@ -1921,12 +1786,12 @@
         <v>84</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>75</v>
@@ -1938,12 +1803,12 @@
         <v>85</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>86</v>
@@ -1955,12 +1820,12 @@
         <v>87</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>86</v>
@@ -1972,12 +1837,12 @@
         <v>88</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>86</v>
@@ -1989,12 +1854,12 @@
         <v>89</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>90</v>
@@ -2006,12 +1871,12 @@
         <v>91</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>90</v>
@@ -2023,12 +1888,12 @@
         <v>92</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>90</v>
@@ -2040,12 +1905,12 @@
         <v>93</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>90</v>
@@ -2057,12 +1922,12 @@
         <v>94</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>90</v>
@@ -2074,12 +1939,12 @@
         <v>95</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>96</v>
@@ -2091,12 +1956,12 @@
         <v>96</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>97</v>
@@ -2108,12 +1973,12 @@
         <v>97</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>98</v>
@@ -2125,12 +1990,12 @@
         <v>99</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B65" s="0" t="s">
         <v>98</v>
@@ -2142,12 +2007,12 @@
         <v>100</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>98</v>
@@ -2159,12 +2024,12 @@
         <v>101</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B67" s="0" t="s">
         <v>98</v>
@@ -2176,12 +2041,12 @@
         <v>102</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B68" s="0" t="s">
         <v>98</v>
@@ -2193,12 +2058,12 @@
         <v>103</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B69" s="0" t="s">
         <v>98</v>
@@ -2210,12 +2075,12 @@
         <v>104</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B70" s="0" t="s">
         <v>98</v>
@@ -2227,12 +2092,12 @@
         <v>105</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B71" s="0" t="s">
         <v>98</v>
@@ -2244,12 +2109,12 @@
         <v>106</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>98</v>
@@ -2261,12 +2126,12 @@
         <v>107</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>98</v>
@@ -2278,12 +2143,12 @@
         <v>108</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>109</v>
@@ -2295,12 +2160,12 @@
         <v>110</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>109</v>
@@ -2312,12 +2177,12 @@
         <v>111</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>109</v>
@@ -2329,12 +2194,12 @@
         <v>112</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>113</v>
@@ -2346,12 +2211,12 @@
         <v>114</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>113</v>
@@ -2363,12 +2228,12 @@
         <v>115</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>113</v>
@@ -2380,12 +2245,12 @@
         <v>116</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>113</v>
@@ -2397,12 +2262,12 @@
         <v>117</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>113</v>
@@ -2414,12 +2279,12 @@
         <v>118</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>119</v>
@@ -2431,12 +2296,12 @@
         <v>119</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>120</v>
@@ -2448,12 +2313,12 @@
         <v>120</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>121</v>
@@ -2465,12 +2330,12 @@
         <v>122</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>121</v>
@@ -2482,12 +2347,12 @@
         <v>123</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>121</v>
@@ -2499,12 +2364,12 @@
         <v>124</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>125</v>
@@ -2521,7 +2386,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>125</v>
@@ -2538,7 +2403,7 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>125</v>
@@ -2555,7 +2420,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>125</v>
@@ -2572,7 +2437,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>125</v>
@@ -2589,7 +2454,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>125</v>
@@ -2606,7 +2471,7 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>125</v>
@@ -2623,7 +2488,7 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>125</v>
@@ -2640,7 +2505,7 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>125</v>
@@ -2657,7 +2522,7 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>125</v>
@@ -2674,7 +2539,7 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>125</v>
@@ -2691,7 +2556,7 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>125</v>
@@ -2708,7 +2573,7 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>150</v>
@@ -2720,12 +2585,12 @@
         <v>150</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>151</v>
@@ -2737,12 +2602,12 @@
         <v>151</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B101" s="0" t="s">
         <v>152</v>
@@ -2754,12 +2619,12 @@
         <v>153</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B102" s="0" t="s">
         <v>152</v>
@@ -2771,12 +2636,12 @@
         <v>154</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B103" s="0" t="s">
         <v>152</v>
@@ -2788,12 +2653,12 @@
         <v>155</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B104" s="0" t="s">
         <v>156</v>
@@ -2810,7 +2675,7 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B105" s="0" t="s">
         <v>156</v>
@@ -2827,7 +2692,7 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B106" s="0" t="s">
         <v>156</v>
@@ -2844,7 +2709,7 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B107" s="0" t="s">
         <v>156</v>
@@ -2861,7 +2726,7 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B108" s="0" t="s">
         <v>156</v>
@@ -2878,7 +2743,7 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B109" s="0" t="s">
         <v>156</v>
@@ -2895,7 +2760,7 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B110" s="0" t="s">
         <v>156</v>
@@ -2912,7 +2777,7 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B111" s="0" t="s">
         <v>156</v>
@@ -2929,7 +2794,7 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B112" s="0" t="s">
         <v>156</v>
@@ -2946,7 +2811,7 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B113" s="0" t="s">
         <v>156</v>
@@ -2963,7 +2828,7 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B114" s="0" t="s">
         <v>156</v>
@@ -2980,7 +2845,7 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B115" s="0" t="s">
         <v>156</v>
@@ -2997,7 +2862,7 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B116" s="0" t="s">
         <v>169</v>
@@ -3009,12 +2874,12 @@
         <v>169</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B117" s="0" t="s">
         <v>170</v>
@@ -3026,12 +2891,12 @@
         <v>170</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B118" s="0" t="s">
         <v>171</v>
@@ -3043,12 +2908,12 @@
         <v>172</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B119" s="0" t="s">
         <v>171</v>
@@ -3060,12 +2925,12 @@
         <v>173</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B120" s="0" t="s">
         <v>171</v>
@@ -3077,12 +2942,12 @@
         <v>174</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B121" s="0" t="s">
         <v>175</v>
@@ -3099,7 +2964,7 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B122" s="0" t="s">
         <v>175</v>
@@ -3116,7 +2981,7 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B123" s="0" t="s">
         <v>175</v>
@@ -3133,7 +2998,7 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B124" s="0" t="s">
         <v>175</v>
@@ -3150,7 +3015,7 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B125" s="0" t="s">
         <v>175</v>
@@ -3167,7 +3032,7 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B126" s="0" t="s">
         <v>175</v>
@@ -3184,7 +3049,7 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B127" s="0" t="s">
         <v>175</v>
@@ -3201,7 +3066,7 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B128" s="0" t="s">
         <v>175</v>
@@ -3218,7 +3083,7 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B129" s="0" t="s">
         <v>175</v>
@@ -3235,7 +3100,7 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B130" s="0" t="s">
         <v>175</v>
@@ -3252,7 +3117,7 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B131" s="0" t="s">
         <v>175</v>
@@ -3269,7 +3134,7 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B132" s="0" t="s">
         <v>175</v>
@@ -3286,7 +3151,7 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B133" s="0" t="s">
         <v>188</v>
@@ -3298,12 +3163,12 @@
         <v>189</v>
       </c>
       <c r="E133" s="0" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B134" s="0" t="s">
         <v>188</v>
@@ -3315,12 +3180,12 @@
         <v>190</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B135" s="0" t="s">
         <v>188</v>
@@ -3332,12 +3197,12 @@
         <v>191</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B136" s="0" t="s">
         <v>188</v>
@@ -3349,12 +3214,12 @@
         <v>192</v>
       </c>
       <c r="E136" s="0" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B137" s="0" t="s">
         <v>188</v>
@@ -3366,12 +3231,12 @@
         <v>193</v>
       </c>
       <c r="E137" s="0" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B138" s="0" t="s">
         <v>194</v>
@@ -3383,12 +3248,12 @@
         <v>194</v>
       </c>
       <c r="E138" s="0" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B139" s="0" t="s">
         <v>195</v>
@@ -3400,12 +3265,12 @@
         <v>195</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B140" s="0" t="s">
         <v>196</v>
@@ -3417,12 +3282,12 @@
         <v>197</v>
       </c>
       <c r="E140" s="0" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B141" s="0" t="s">
         <v>196</v>
@@ -3434,12 +3299,12 @@
         <v>198</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B142" s="0" t="s">
         <v>196</v>
@@ -3451,12 +3316,12 @@
         <v>199</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B143" s="0" t="s">
         <v>200</v>
@@ -3473,7 +3338,7 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B144" s="0" t="s">
         <v>200</v>
@@ -3490,7 +3355,7 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B145" s="0" t="s">
         <v>200</v>
@@ -3507,7 +3372,7 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B146" s="0" t="s">
         <v>200</v>
@@ -3524,7 +3389,7 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B147" s="0" t="s">
         <v>200</v>
@@ -3541,7 +3406,7 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B148" s="0" t="s">
         <v>200</v>
@@ -3558,7 +3423,7 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B149" s="0" t="s">
         <v>200</v>
@@ -3575,7 +3440,7 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B150" s="0" t="s">
         <v>200</v>
@@ -3592,7 +3457,7 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B151" s="0" t="s">
         <v>200</v>
@@ -3609,7 +3474,7 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B152" s="0" t="s">
         <v>200</v>
@@ -3626,7 +3491,7 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B153" s="0" t="s">
         <v>200</v>
@@ -3643,7 +3508,7 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B154" s="0" t="s">
         <v>200</v>
@@ -3660,7 +3525,7 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B155" s="0" t="s">
         <v>213</v>
@@ -3672,12 +3537,12 @@
         <v>213</v>
       </c>
       <c r="E155" s="0" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B156" s="0" t="s">
         <v>214</v>
@@ -3689,12 +3554,12 @@
         <v>214</v>
       </c>
       <c r="E156" s="0" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B157" s="0" t="s">
         <v>215</v>
@@ -3706,12 +3571,12 @@
         <v>216</v>
       </c>
       <c r="E157" s="0" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B158" s="0" t="s">
         <v>215</v>
@@ -3723,12 +3588,12 @@
         <v>217</v>
       </c>
       <c r="E158" s="0" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B159" s="0" t="s">
         <v>215</v>
@@ -3740,12 +3605,12 @@
         <v>218</v>
       </c>
       <c r="E159" s="0" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B160" s="0" t="s">
         <v>219</v>
@@ -3762,7 +3627,7 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B161" s="0" t="s">
         <v>219</v>
@@ -3779,7 +3644,7 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B162" s="0" t="s">
         <v>219</v>
@@ -3796,7 +3661,7 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B163" s="0" t="s">
         <v>219</v>
@@ -3813,7 +3678,7 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B164" s="0" t="s">
         <v>219</v>
@@ -3830,7 +3695,7 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B165" s="0" t="s">
         <v>219</v>
@@ -3847,7 +3712,7 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B166" s="0" t="s">
         <v>219</v>
@@ -3864,7 +3729,7 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B167" s="0" t="s">
         <v>219</v>
@@ -3881,7 +3746,7 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B168" s="0" t="s">
         <v>219</v>
@@ -3898,7 +3763,7 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B169" s="0" t="s">
         <v>219</v>
@@ -3915,7 +3780,7 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B170" s="0" t="s">
         <v>219</v>
@@ -3932,7 +3797,7 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B171" s="0" t="s">
         <v>219</v>
@@ -3949,7 +3814,7 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B172" s="0" t="s">
         <v>232</v>
@@ -3961,12 +3826,12 @@
         <v>232</v>
       </c>
       <c r="E172" s="0" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B173" s="0" t="s">
         <v>233</v>
@@ -3978,12 +3843,12 @@
         <v>233</v>
       </c>
       <c r="E173" s="0" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B174" s="0" t="s">
         <v>234</v>
@@ -3995,12 +3860,12 @@
         <v>235</v>
       </c>
       <c r="E174" s="0" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B175" s="0" t="s">
         <v>234</v>
@@ -4012,12 +3877,12 @@
         <v>236</v>
       </c>
       <c r="E175" s="0" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B176" s="0" t="s">
         <v>234</v>
@@ -4029,12 +3894,12 @@
         <v>237</v>
       </c>
       <c r="E176" s="0" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B177" s="0" t="s">
         <v>238</v>
@@ -4051,7 +3916,7 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B178" s="0" t="s">
         <v>238</v>
@@ -4068,7 +3933,7 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B179" s="0" t="s">
         <v>238</v>
@@ -4085,7 +3950,7 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B180" s="0" t="s">
         <v>238</v>
@@ -4102,7 +3967,7 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B181" s="0" t="s">
         <v>238</v>
@@ -4119,7 +3984,7 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B182" s="0" t="s">
         <v>238</v>
@@ -4136,7 +4001,7 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B183" s="0" t="s">
         <v>238</v>
@@ -4153,7 +4018,7 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B184" s="0" t="s">
         <v>238</v>
@@ -4170,7 +4035,7 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B185" s="0" t="s">
         <v>238</v>
@@ -4187,7 +4052,7 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B186" s="0" t="s">
         <v>238</v>
@@ -4204,7 +4069,7 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B187" s="0" t="s">
         <v>238</v>
@@ -4221,7 +4086,7 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B188" s="0" t="s">
         <v>238</v>
@@ -4242,7 +4107,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
